--- a/tmp_client/doc/TMP_EIT_suites/impl_02_bit_generate.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/impl_02_bit_generate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <workbookProtection workbookPassword="DD9F" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6300" windowWidth="28830" windowHeight="6240"/>
+    <workbookView xWindow="-15" yWindow="6300" windowWidth="28830" windowHeight="6240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,15 @@
   </definedNames>
   <calcPr calcId="122211"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="815" activeSheetId="1"/>
+    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
     <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
-    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" mergeInterval="0" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
-    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="815" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="296">
   <si>
     <t>[suite_info]</t>
   </si>
@@ -1047,9 +1047,6 @@
   </si>
   <si>
     <t>Flow/YCbCr8Bit2RGB565</t>
-  </si>
-  <si>
-    <t>DMS</t>
   </si>
   <si>
     <t>Bitgen_option</t>
@@ -2356,6 +2353,49 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="44" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2375,49 +2415,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="44" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="44" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4825,7 +4822,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{29FD8EA6-10FC-4B20-9354-EB4A4C35F152}" diskRevisions="1" revisionId="315" version="8">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{09F63D8E-A01E-4C41-A83D-B8292B3C888D}" diskRevisions="1" revisionId="322" version="9">
   <header guid="{44EB38A2-BBD0-4FEB-BE52-D705D470D324}" dateTime="2017-10-18T14:19:16" maxSheetId="5" userName="Jason Wang" r:id="rId1">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -4883,6 +4880,14 @@
     </sheetIdMap>
   </header>
   <header guid="{29FD8EA6-10FC-4B20-9354-EB4A4C35F152}" dateTime="2017-10-19T17:01:00" maxSheetId="5" userName="Jason Wang" r:id="rId8" minRId="315">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{09F63D8E-A01E-4C41-A83D-B8292B3C888D}" dateTime="2017-10-20T13:42:44" maxSheetId="5" userName="Jason Wang" r:id="rId9" minRId="316" maxRId="322">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -8046,7 +8051,86 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="316" sId="2">
+    <nc r="Q21" t="inlineStr">
+      <is>
+        <t>Bitgen_option</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="317" sId="2">
+    <nc r="Q22" t="inlineStr">
+      <is>
+        <t>Bitgen_option</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="318" sId="2">
+    <oc r="Q15" t="inlineStr">
+      <is>
+        <t>DMS</t>
+      </is>
+    </oc>
+    <nc r="Q15" t="inlineStr">
+      <is>
+        <t>Flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="319" sId="2">
+    <oc r="Q16" t="inlineStr">
+      <is>
+        <t>DMS</t>
+      </is>
+    </oc>
+    <nc r="Q16" t="inlineStr">
+      <is>
+        <t>Flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="320" sId="2">
+    <oc r="Q17" t="inlineStr">
+      <is>
+        <t>DMS</t>
+      </is>
+    </oc>
+    <nc r="Q17" t="inlineStr">
+      <is>
+        <t>Flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="321" sId="2">
+    <oc r="Q18" t="inlineStr">
+      <is>
+        <t>DMS</t>
+      </is>
+    </oc>
+    <nc r="Q18" t="inlineStr">
+      <is>
+        <t>Flow</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="322" sId="2">
+    <oc r="Q19" t="inlineStr">
+      <is>
+        <t>DMS</t>
+      </is>
+    </oc>
+    <nc r="Q19" t="inlineStr">
+      <is>
+        <t>Flow</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -8339,7 +8423,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8358,7 +8444,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -8400,7 +8486,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -8475,8 +8561,8 @@
   </sheetData>
   <sheetProtection password="DD9F" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="B35" sqref="B35"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+      <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -8485,8 +8571,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
-      <selection activeCell="B7" sqref="B7"/>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="B35" sqref="B35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -8501,12 +8587,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8658,7 +8744,7 @@
     </row>
     <row r="3" spans="1:28" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>253</v>
@@ -8672,7 +8758,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>253</v>
@@ -8686,7 +8772,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>253</v>
@@ -8700,7 +8786,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>253</v>
@@ -8714,7 +8800,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>253</v>
@@ -8742,7 +8828,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>253</v>
@@ -8756,7 +8842,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>253</v>
@@ -8770,7 +8856,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>253</v>
@@ -8784,7 +8870,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>253</v>
@@ -8798,7 +8884,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>253</v>
@@ -8812,7 +8898,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>253</v>
@@ -8826,7 +8912,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>253</v>
@@ -8835,12 +8921,12 @@
         <v>266</v>
       </c>
       <c r="Q15" s="18" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>253</v>
@@ -8849,12 +8935,12 @@
         <v>267</v>
       </c>
       <c r="Q16" s="18" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>253</v>
@@ -8863,12 +8949,12 @@
         <v>268</v>
       </c>
       <c r="Q17" s="18" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>253</v>
@@ -8877,12 +8963,12 @@
         <v>269</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>253</v>
@@ -8891,55 +8977,61 @@
         <v>270</v>
       </c>
       <c r="Q19" s="18" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D20" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>273</v>
-      </c>
       <c r="Q20" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
+      </c>
+      <c r="Q21" s="18" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+      <c r="Q22" s="18" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection password="DD9F" sheet="1" objects="1" scenarios="1" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A2:AB2"/>
   <customSheetViews>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A2:Y2"/>
+      <autoFilter ref="A2:AB2"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
@@ -8948,12 +9040,12 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
       <autoFilter ref="A2:Y2"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="A2:AB2"/>
+      <autoFilter ref="A2:Y2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -9079,17 +9171,17 @@
       <c r="E109" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F109" s="55" t="s">
+      <c r="F109" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="G109" s="56"/>
-      <c r="H109" s="56"/>
-      <c r="I109" s="56"/>
-      <c r="J109" s="56"/>
-      <c r="K109" s="56"/>
-      <c r="L109" s="56"/>
-      <c r="M109" s="56"/>
-      <c r="N109" s="57"/>
+      <c r="G109" s="71"/>
+      <c r="H109" s="71"/>
+      <c r="I109" s="71"/>
+      <c r="J109" s="71"/>
+      <c r="K109" s="71"/>
+      <c r="L109" s="71"/>
+      <c r="M109" s="71"/>
+      <c r="N109" s="72"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A110" s="6" t="s">
@@ -9869,7 +9961,7 @@
       <c r="A142" s="43">
         <v>1</v>
       </c>
-      <c r="B142" s="58" t="s">
+      <c r="B142" s="73" t="s">
         <v>125</v>
       </c>
       <c r="C142" s="41" t="s">
@@ -9895,7 +9987,7 @@
       <c r="A143" s="43">
         <v>2</v>
       </c>
-      <c r="B143" s="59"/>
+      <c r="B143" s="74"/>
       <c r="C143" s="41" t="s">
         <v>131</v>
       </c>
@@ -9917,7 +10009,7 @@
       <c r="A144" s="43">
         <v>3</v>
       </c>
-      <c r="B144" s="59"/>
+      <c r="B144" s="74"/>
       <c r="C144" s="41" t="s">
         <v>9</v>
       </c>
@@ -9935,7 +10027,7 @@
       <c r="A145" s="43">
         <v>4</v>
       </c>
-      <c r="B145" s="59"/>
+      <c r="B145" s="74"/>
       <c r="C145" s="41" t="s">
         <v>39</v>
       </c>
@@ -9955,7 +10047,7 @@
       <c r="A146" s="43">
         <v>5</v>
       </c>
-      <c r="B146" s="59"/>
+      <c r="B146" s="74"/>
       <c r="C146" s="41" t="s">
         <v>133</v>
       </c>
@@ -9977,7 +10069,7 @@
       <c r="A147" s="43">
         <v>6</v>
       </c>
-      <c r="B147" s="59"/>
+      <c r="B147" s="74"/>
       <c r="C147" s="41" t="s">
         <v>42</v>
       </c>
@@ -9999,7 +10091,7 @@
       <c r="A148" s="43">
         <v>7</v>
       </c>
-      <c r="B148" s="59"/>
+      <c r="B148" s="74"/>
       <c r="C148" s="41" t="s">
         <v>57</v>
       </c>
@@ -10023,7 +10115,7 @@
       <c r="A149" s="43">
         <v>8</v>
       </c>
-      <c r="B149" s="60"/>
+      <c r="B149" s="75"/>
       <c r="C149" s="41" t="s">
         <v>140</v>
       </c>
@@ -10091,7 +10183,7 @@
       <c r="A152" s="43">
         <v>11</v>
       </c>
-      <c r="B152" s="61" t="s">
+      <c r="B152" s="76" t="s">
         <v>147</v>
       </c>
       <c r="C152" s="41" t="s">
@@ -10115,7 +10207,7 @@
       <c r="A153" s="43">
         <v>12</v>
       </c>
-      <c r="B153" s="62"/>
+      <c r="B153" s="60"/>
       <c r="C153" s="41" t="s">
         <v>150</v>
       </c>
@@ -10479,7 +10571,7 @@
       <c r="A171" s="44">
         <v>30</v>
       </c>
-      <c r="B171" s="63"/>
+      <c r="B171" s="55"/>
       <c r="C171" s="42"/>
       <c r="D171" s="42"/>
       <c r="E171" s="42"/>
@@ -10510,11 +10602,11 @@
       <c r="B184" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="C184" s="64" t="s">
+      <c r="C184" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D184" s="64"/>
-      <c r="E184" s="64"/>
+      <c r="D184" s="66"/>
+      <c r="E184" s="66"/>
       <c r="F184" s="36" t="s">
         <v>44</v>
       </c>
@@ -10529,11 +10621,11 @@
       <c r="B185" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="C185" s="65" t="s">
+      <c r="C185" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="D185" s="65"/>
-      <c r="E185" s="65"/>
+      <c r="D185" s="67"/>
+      <c r="E185" s="67"/>
       <c r="F185" s="41" t="s">
         <v>191</v>
       </c>
@@ -10544,11 +10636,11 @@
     <row r="186" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A186" s="54"/>
       <c r="B186" s="54"/>
-      <c r="C186" s="66" t="s">
+      <c r="C186" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="D186" s="66"/>
-      <c r="E186" s="66"/>
+      <c r="D186" s="68"/>
+      <c r="E186" s="68"/>
       <c r="F186" s="41" t="s">
         <v>193</v>
       </c>
@@ -10561,11 +10653,11 @@
       <c r="B187" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="C187" s="67" t="s">
+      <c r="C187" s="69" t="s">
         <v>195</v>
       </c>
-      <c r="D187" s="67"/>
-      <c r="E187" s="67"/>
+      <c r="D187" s="69"/>
+      <c r="E187" s="69"/>
       <c r="F187" s="41" t="s">
         <v>191</v>
       </c>
@@ -10576,11 +10668,11 @@
     <row r="188" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A188" s="54"/>
       <c r="B188" s="54"/>
-      <c r="C188" s="67" t="s">
+      <c r="C188" s="69" t="s">
         <v>195</v>
       </c>
-      <c r="D188" s="67"/>
-      <c r="E188" s="67"/>
+      <c r="D188" s="69"/>
+      <c r="E188" s="69"/>
       <c r="F188" s="41" t="s">
         <v>193</v>
       </c>
@@ -10589,7 +10681,7 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A189" s="68" t="s">
+      <c r="A189" s="56" t="s">
         <v>196</v>
       </c>
       <c r="B189" s="54" t="s">
@@ -10608,7 +10700,7 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A190" s="68"/>
+      <c r="A190" s="56"/>
       <c r="B190" s="54"/>
       <c r="C190" s="54" t="s">
         <v>47</v>
@@ -10623,7 +10715,7 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A191" s="68"/>
+      <c r="A191" s="56"/>
       <c r="B191" s="54" t="s">
         <v>198</v>
       </c>
@@ -10640,7 +10732,7 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A192" s="68"/>
+      <c r="A192" s="56"/>
       <c r="B192" s="54"/>
       <c r="C192" s="54" t="s">
         <v>49</v>
@@ -10655,7 +10747,7 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A193" s="68" t="s">
+      <c r="A193" s="56" t="s">
         <v>199</v>
       </c>
       <c r="B193" s="54" t="s">
@@ -10674,7 +10766,7 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A194" s="68"/>
+      <c r="A194" s="56"/>
       <c r="B194" s="54"/>
       <c r="C194" s="54" t="s">
         <v>51</v>
@@ -10689,7 +10781,7 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A195" s="68"/>
+      <c r="A195" s="56"/>
       <c r="B195" s="54" t="s">
         <v>201</v>
       </c>
@@ -10706,13 +10798,13 @@
       </c>
     </row>
     <row r="196" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="69"/>
-      <c r="B196" s="63"/>
-      <c r="C196" s="63" t="s">
+      <c r="A196" s="57"/>
+      <c r="B196" s="55"/>
+      <c r="C196" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="D196" s="63"/>
-      <c r="E196" s="63"/>
+      <c r="D196" s="55"/>
+      <c r="E196" s="55"/>
       <c r="F196" s="42" t="s">
         <v>193</v>
       </c>
@@ -10751,12 +10843,12 @@
       <c r="A201" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="B201" s="70" t="s">
+      <c r="B201" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="C201" s="70"/>
-      <c r="D201" s="70"/>
-      <c r="E201" s="70"/>
+      <c r="C201" s="58"/>
+      <c r="D201" s="58"/>
+      <c r="E201" s="58"/>
       <c r="F201" s="22" t="s">
         <v>208</v>
       </c>
@@ -10768,12 +10860,12 @@
       <c r="A202" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="B202" s="71" t="s">
+      <c r="B202" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="C202" s="62"/>
-      <c r="D202" s="62"/>
-      <c r="E202" s="62"/>
+      <c r="C202" s="60"/>
+      <c r="D202" s="60"/>
+      <c r="E202" s="60"/>
       <c r="F202" s="38" t="s">
         <v>212</v>
       </c>
@@ -10785,12 +10877,12 @@
       <c r="A203" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B203" s="72" t="s">
+      <c r="B203" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="C203" s="73"/>
-      <c r="D203" s="73"/>
-      <c r="E203" s="74"/>
+      <c r="C203" s="62"/>
+      <c r="D203" s="62"/>
+      <c r="E203" s="63"/>
       <c r="F203" s="10" t="s">
         <v>192</v>
       </c>
@@ -10802,12 +10894,12 @@
       <c r="A204" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="B204" s="75" t="s">
+      <c r="B204" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="C204" s="63"/>
-      <c r="D204" s="63"/>
-      <c r="E204" s="63"/>
+      <c r="C204" s="55"/>
+      <c r="D204" s="55"/>
+      <c r="E204" s="55"/>
       <c r="F204" s="13" t="s">
         <v>192</v>
       </c>
@@ -10852,11 +10944,11 @@
       <c r="C209" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="D209" s="76" t="s">
+      <c r="D209" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="E209" s="76"/>
-      <c r="F209" s="76"/>
+      <c r="E209" s="65"/>
+      <c r="F209" s="65"/>
       <c r="G209" s="32"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.15">
@@ -10940,9 +11032,9 @@
       <c r="A215" s="44"/>
       <c r="B215" s="42"/>
       <c r="C215" s="42"/>
-      <c r="D215" s="63"/>
-      <c r="E215" s="63"/>
-      <c r="F215" s="63"/>
+      <c r="D215" s="55"/>
+      <c r="E215" s="55"/>
+      <c r="F215" s="55"/>
       <c r="G215" s="25"/>
     </row>
   </sheetData>
@@ -10955,11 +11047,28 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="40">
-    <mergeCell ref="D211:F211"/>
-    <mergeCell ref="D212:F212"/>
-    <mergeCell ref="D213:F213"/>
-    <mergeCell ref="D214:F214"/>
-    <mergeCell ref="D215:F215"/>
+    <mergeCell ref="B162:B167"/>
+    <mergeCell ref="F109:N109"/>
+    <mergeCell ref="B142:B149"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="B154:B161"/>
+    <mergeCell ref="B168:B171"/>
+    <mergeCell ref="C184:E184"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:E185"/>
+    <mergeCell ref="C186:E186"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:E187"/>
+    <mergeCell ref="C188:E188"/>
+    <mergeCell ref="A189:A192"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="C189:E189"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="C192:E192"/>
     <mergeCell ref="D210:F210"/>
     <mergeCell ref="A193:A196"/>
     <mergeCell ref="B193:B194"/>
@@ -10973,28 +11082,11 @@
     <mergeCell ref="B203:E203"/>
     <mergeCell ref="B204:E204"/>
     <mergeCell ref="D209:F209"/>
-    <mergeCell ref="A189:A192"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="C189:E189"/>
-    <mergeCell ref="C190:E190"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="C191:E191"/>
-    <mergeCell ref="C192:E192"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="C184:E184"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="C185:E185"/>
-    <mergeCell ref="C186:E186"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:E187"/>
-    <mergeCell ref="C188:E188"/>
-    <mergeCell ref="B162:B167"/>
-    <mergeCell ref="F109:N109"/>
-    <mergeCell ref="B142:B149"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="B154:B161"/>
+    <mergeCell ref="D211:F211"/>
+    <mergeCell ref="D212:F212"/>
+    <mergeCell ref="D213:F213"/>
+    <mergeCell ref="D214:F214"/>
+    <mergeCell ref="D215:F215"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11020,16 +11112,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="E26" sqref="E26"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+      <selection activeCell="B53" sqref="B53"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
-      <selection activeCell="B53" sqref="B53"/>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
